--- a/Excel-Practice/03-Fomulas-and-Functions/01-Building-Basic-Formulas/Autumn Furniture Sale 2022.xlsx
+++ b/Excel-Practice/03-Fomulas-and-Functions/01-Building-Basic-Formulas/Autumn Furniture Sale 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying-02\Books\24-Excel-May-02-2023\Excel-Tutorials\Excel-Practice\03-Fomulas-and-Functions\01-Building-Basic-Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373B2F54-9F2A-46D4-8E16-62B106F0BAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7774EF28-E4A8-4526-8038-C19D358323C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,17 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="Armchair">Sheet1!$B$5:$E$5</definedName>
+    <definedName name="Buffet">Sheet1!$B$6:$E$6</definedName>
+    <definedName name="China_Hutch">Sheet1!$B$7:$E$7</definedName>
+    <definedName name="Code">Sheet1!$B$3:$B$7</definedName>
+    <definedName name="Dining_Table">Sheet1!$B$3:$E$3</definedName>
+    <definedName name="Discount">Sheet1!$D$3:$D$7</definedName>
     <definedName name="discount_rate">15%</definedName>
+    <definedName name="Item_Description">Sheet1!$B$3:$E$7</definedName>
+    <definedName name="Retail_Price">Sheet1!$C$3:$C$7</definedName>
+    <definedName name="Sale_Price">Sheet1!$E$3:$E$7</definedName>
+    <definedName name="Side_Chair">Sheet1!$B$4:$E$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -187,7 +197,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B9DDFBDF-59F1-44C1-8EC4-6F824EA883B5}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{231DF99A-B648-4ECB-ACFB-5A1AA786F352}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -466,7 +476,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -475,7 +485,7 @@
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1">
@@ -515,10 +525,13 @@
         <v>1299</v>
       </c>
       <c r="D3" s="5" cm="1">
-        <f t="array" ref="D3">C3*discount_rate</f>
+        <f t="array" ref="D3">Dining_Table Retail_Price*discount_rate</f>
         <v>194.85</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" cm="1">
+        <f t="array" ref="E3">Dining_Table Retail_Price-Dining_Table Discount</f>
+        <v>1104.1500000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -531,10 +544,13 @@
         <v>329</v>
       </c>
       <c r="D4" s="5" cm="1">
-        <f t="array" ref="D4">C4*discount_rate</f>
+        <f t="array" ref="D4">Side_Chair Retail_Price*discount_rate</f>
         <v>49.35</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" cm="1">
+        <f t="array" ref="E4">Side_Chair Retail_Price-Side_Chair Discount</f>
+        <v>279.64999999999998</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
@@ -547,10 +563,13 @@
         <v>425</v>
       </c>
       <c r="D5" s="5" cm="1">
-        <f t="array" ref="D5">C5*discount_rate</f>
+        <f t="array" ref="D5">Armchair Retail_Price*discount_rate</f>
         <v>63.75</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" cm="1">
+        <f t="array" ref="E5">Armchair Retail_Price-Armchair Discount</f>
+        <v>361.25</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -563,10 +582,13 @@
         <v>950</v>
       </c>
       <c r="D6" s="5" cm="1">
-        <f t="array" ref="D6">C6*discount_rate</f>
+        <f t="array" ref="D6">Buffet Retail_Price*discount_rate</f>
         <v>142.5</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" cm="1">
+        <f t="array" ref="E6">Buffet Retail_Price-Buffet Discount</f>
+        <v>807.5</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -579,10 +601,13 @@
         <v>1399</v>
       </c>
       <c r="D7" s="5" cm="1">
-        <f t="array" ref="D7">C7*discount_rate</f>
+        <f t="array" ref="D7">China_Hutch Retail_Price*discount_rate</f>
         <v>209.85</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" cm="1">
+        <f t="array" ref="E7">China_Hutch Retail_Price-China_Hutch Discount</f>
+        <v>1189.1500000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
